--- a/results/mp/logistic/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,64 +64,61 @@
     <t>great</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>share</t>
@@ -488,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,10 +490,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -557,13 +551,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -575,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -607,13 +601,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4285714285714285</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -625,19 +619,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -649,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -657,13 +651,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.313953488372093</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C5">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D5">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -675,69 +669,45 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L5">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L5">
-        <v>54</v>
-      </c>
-      <c r="M5">
-        <v>54</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.2080536912751678</v>
-      </c>
-      <c r="C6">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>118</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,21 +719,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8276762402088773</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L7">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,21 +745,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -801,21 +771,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,21 +797,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,21 +823,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,12 +849,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
         <v>0.76875</v>
@@ -910,16 +880,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,21 +901,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,21 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.7253521126760564</v>
+        <v>0.734375</v>
       </c>
       <c r="L15">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.7222222222222222</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1040,16 +1010,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6349206349206349</v>
+        <v>0.64</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1113,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6279069767441861</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1139,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.611764705882353</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L22">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="M22">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5690376569037657</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L23">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5638297872340425</v>
+        <v>0.5397489539748954</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,21 +1187,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L25">
         <v>35</v>
       </c>
-      <c r="K25">
-        <v>0.5538461538461539</v>
-      </c>
-      <c r="L25">
-        <v>36</v>
-      </c>
       <c r="M25">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,47 +1213,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,33 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>0.4044943820224719</v>
-      </c>
-      <c r="L28">
-        <v>36</v>
-      </c>
-      <c r="M28">
-        <v>36</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
